--- a/Rekap Kuesioner 14.10.2019.xlsx
+++ b/Rekap Kuesioner 14.10.2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Statistik &amp; Probabilitas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Statistik &amp; Probabilitas\dataKendaraan-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5077A21D-208D-4EBD-9342-8FF9B092E059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6B1C6-A197-4870-9299-A02E0046FD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="59">
   <si>
     <t>Pertanyaan</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total Jawaban kuesioner dari 4 anggota</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -303,11 +312,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -353,6 +359,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,14 +667,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -670,2489 +682,2518 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
         <v>7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>13</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f>SUM(C5:G5)</f>
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>14</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" ref="H6:H25" si="0">SUM(C6:G6)</f>
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>7</v>
       </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
         <v>7</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
         <v>6</v>
       </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
         <v>9</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
         <v>7</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>7</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>9</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
         <v>9</v>
       </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>7</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>7</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>11</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>9</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>10</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
         <v>19</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" s="4">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>7</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
         <v>16</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <f>SUM(C5:C25)</f>
         <v>66</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <f>SUM(D5:D25)</f>
         <v>102</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <f>SUM(E5:E25)</f>
         <v>84</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <f>SUM(F5:F25)</f>
         <v>91</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <f>SUM(G5:G25)</f>
         <v>157</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>SUM(C26:G26)</f>
         <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="16" t="s">
+      <c r="F29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>4</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16">
         <v>6</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>15</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>SUM(C30:G30)</f>
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="17">
-        <v>2</v>
-      </c>
-      <c r="D31" s="17">
-        <v>4</v>
-      </c>
-      <c r="E31" s="17">
-        <v>2</v>
-      </c>
-      <c r="F31" s="17">
-        <v>3</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="C31" s="16">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16">
+        <v>4</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2</v>
+      </c>
+      <c r="F31" s="16">
+        <v>3</v>
+      </c>
+      <c r="G31" s="16">
         <v>14</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f t="shared" ref="H31:H50" si="1">SUM(C31:G31)</f>
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>12</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>8</v>
       </c>
-      <c r="E32" s="17">
-        <v>3</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>2</v>
-      </c>
-      <c r="H32" s="10">
+      <c r="E32" s="16">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>7</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <v>6</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <v>9</v>
       </c>
-      <c r="F33" s="17">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17">
-        <v>2</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+      <c r="H33" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>11</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>11</v>
       </c>
-      <c r="E34" s="17">
-        <v>3</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
+      <c r="E34" s="16">
+        <v>3</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="17">
-        <v>4</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="C35" s="16">
+        <v>4</v>
+      </c>
+      <c r="D35" s="16">
         <v>8</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="16">
         <v>7</v>
       </c>
-      <c r="F35" s="17">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17">
-        <v>5</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16">
+        <v>5</v>
+      </c>
+      <c r="H35" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>7</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>6</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <v>6</v>
       </c>
-      <c r="F36" s="17">
-        <v>2</v>
-      </c>
-      <c r="G36" s="17">
-        <v>4</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="F36" s="16">
+        <v>2</v>
+      </c>
+      <c r="G36" s="16">
+        <v>4</v>
+      </c>
+      <c r="H36" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>7</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>7</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="16">
         <v>6</v>
       </c>
-      <c r="F37" s="17">
-        <v>3</v>
-      </c>
-      <c r="G37" s="17">
-        <v>2</v>
-      </c>
-      <c r="H37" s="10">
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="17">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17">
-        <v>5</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>5</v>
+      </c>
+      <c r="E38" s="16">
         <v>9</v>
       </c>
-      <c r="F38" s="17">
-        <v>5</v>
-      </c>
-      <c r="G38" s="17">
-        <v>5</v>
-      </c>
-      <c r="H38" s="10">
+      <c r="F38" s="16">
+        <v>5</v>
+      </c>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>9</v>
       </c>
-      <c r="D39" s="17">
-        <v>3</v>
-      </c>
-      <c r="E39" s="17">
-        <v>3</v>
-      </c>
-      <c r="F39" s="17">
-        <v>5</v>
-      </c>
-      <c r="G39" s="17">
-        <v>5</v>
-      </c>
-      <c r="H39" s="10">
+      <c r="D39" s="16">
+        <v>3</v>
+      </c>
+      <c r="E39" s="16">
+        <v>3</v>
+      </c>
+      <c r="F39" s="16">
+        <v>5</v>
+      </c>
+      <c r="G39" s="16">
+        <v>5</v>
+      </c>
+      <c r="H39" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>18</v>
       </c>
-      <c r="D40" s="17">
-        <v>3</v>
-      </c>
-      <c r="E40" s="17">
-        <v>3</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
-        <v>1</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="D40" s="16">
+        <v>3</v>
+      </c>
+      <c r="E40" s="16">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>9</v>
       </c>
-      <c r="D41" s="17">
-        <v>5</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="16">
+        <v>5</v>
+      </c>
+      <c r="E41" s="16">
         <v>8</v>
       </c>
-      <c r="F41" s="17">
-        <v>1</v>
-      </c>
-      <c r="G41" s="17">
-        <v>2</v>
-      </c>
-      <c r="H41" s="10">
+      <c r="F41" s="16">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>2</v>
+      </c>
+      <c r="H41" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="17">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
-        <v>4</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>4</v>
+      </c>
+      <c r="E42" s="16">
         <v>7</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>7</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="16">
         <v>7</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="17">
-        <v>4</v>
-      </c>
-      <c r="D43" s="17">
+      <c r="C43" s="16">
+        <v>4</v>
+      </c>
+      <c r="D43" s="16">
         <v>6</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="16">
         <v>8</v>
       </c>
-      <c r="F43" s="17">
-        <v>4</v>
-      </c>
-      <c r="G43" s="17">
-        <v>3</v>
-      </c>
-      <c r="H43" s="10">
+      <c r="F43" s="16">
+        <v>4</v>
+      </c>
+      <c r="G43" s="16">
+        <v>3</v>
+      </c>
+      <c r="H43" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>16</v>
       </c>
-      <c r="D44" s="17">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17">
-        <v>3</v>
-      </c>
-      <c r="F44" s="17">
-        <v>1</v>
-      </c>
-      <c r="G44" s="17">
-        <v>2</v>
-      </c>
-      <c r="H44" s="10">
+      <c r="D44" s="16">
+        <v>3</v>
+      </c>
+      <c r="E44" s="16">
+        <v>3</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="10"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="17">
-        <v>0</v>
-      </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
-        <v>5</v>
-      </c>
-      <c r="F46" s="17">
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>5</v>
+      </c>
+      <c r="F46" s="16">
         <v>10</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="16">
         <v>10</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="17">
-        <v>0</v>
-      </c>
-      <c r="D47" s="17">
-        <v>2</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>2</v>
+      </c>
+      <c r="E47" s="16">
         <v>6</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>9</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="16">
         <v>8</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="17">
-        <v>0</v>
-      </c>
-      <c r="D48" s="17">
-        <v>1</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="C48" s="16">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16">
         <v>8</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>9</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="16">
         <v>7</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="17">
-        <v>3</v>
-      </c>
-      <c r="D49" s="17">
-        <v>3</v>
-      </c>
-      <c r="E49" s="17">
-        <v>4</v>
-      </c>
-      <c r="F49" s="17">
+      <c r="C49" s="16">
+        <v>3</v>
+      </c>
+      <c r="D49" s="16">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16">
+        <v>4</v>
+      </c>
+      <c r="F49" s="16">
         <v>10</v>
       </c>
-      <c r="G49" s="17">
-        <v>5</v>
-      </c>
-      <c r="H49" s="10">
+      <c r="G49" s="16">
+        <v>5</v>
+      </c>
+      <c r="H49" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="17">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
-        <v>2</v>
-      </c>
-      <c r="F50" s="17">
-        <v>5</v>
-      </c>
-      <c r="G50" s="17">
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>2</v>
+      </c>
+      <c r="F50" s="16">
+        <v>5</v>
+      </c>
+      <c r="G50" s="16">
         <v>18</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <f>SUM(C30:C50)</f>
         <v>110</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <f t="shared" ref="D51:G51" si="2">SUM(D30:D50)</f>
         <v>85</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <f>SUM(C51:G51)</f>
         <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="13" t="s">
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="16" t="s">
+      <c r="F54" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="17">
-        <v>2</v>
-      </c>
-      <c r="D55" s="17">
-        <v>1</v>
-      </c>
-      <c r="E55" s="17">
-        <v>1</v>
-      </c>
-      <c r="F55" s="17">
-        <v>5</v>
-      </c>
-      <c r="G55" s="17">
+      <c r="C55" s="16">
+        <v>2</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16">
+        <v>1</v>
+      </c>
+      <c r="F55" s="16">
+        <v>5</v>
+      </c>
+      <c r="G55" s="16">
         <v>16</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <f>SUM(C55:G55)</f>
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="17">
-        <v>2</v>
-      </c>
-      <c r="D56" s="17">
-        <v>2</v>
-      </c>
-      <c r="E56" s="17">
-        <v>2</v>
-      </c>
-      <c r="F56" s="17">
-        <v>5</v>
-      </c>
-      <c r="G56" s="17">
+      <c r="C56" s="16">
+        <v>2</v>
+      </c>
+      <c r="D56" s="16">
+        <v>2</v>
+      </c>
+      <c r="E56" s="16">
+        <v>2</v>
+      </c>
+      <c r="F56" s="16">
+        <v>5</v>
+      </c>
+      <c r="G56" s="16">
         <v>14</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <f t="shared" ref="H56:H69" si="3">SUM(C56:G56)</f>
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>19</v>
       </c>
-      <c r="D57" s="17">
-        <v>4</v>
-      </c>
-      <c r="E57" s="17">
-        <v>2</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
-        <v>0</v>
-      </c>
-      <c r="H57" s="10">
+      <c r="D57" s="16">
+        <v>4</v>
+      </c>
+      <c r="E57" s="16">
+        <v>2</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0</v>
+      </c>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>9</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>8</v>
       </c>
-      <c r="E58" s="17">
-        <v>4</v>
-      </c>
-      <c r="F58" s="17">
-        <v>3</v>
-      </c>
-      <c r="G58" s="17">
-        <v>1</v>
-      </c>
-      <c r="H58" s="10">
+      <c r="E58" s="16">
+        <v>4</v>
+      </c>
+      <c r="F58" s="16">
+        <v>3</v>
+      </c>
+      <c r="G58" s="16">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>19</v>
       </c>
-      <c r="D59" s="17">
-        <v>1</v>
-      </c>
-      <c r="E59" s="17">
-        <v>4</v>
-      </c>
-      <c r="F59" s="17">
-        <v>1</v>
-      </c>
-      <c r="G59" s="17">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
+      <c r="D59" s="16">
+        <v>1</v>
+      </c>
+      <c r="E59" s="16">
+        <v>4</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="17">
-        <v>1</v>
-      </c>
-      <c r="D60" s="17">
-        <v>4</v>
-      </c>
-      <c r="E60" s="17">
+      <c r="C60" s="16">
+        <v>1</v>
+      </c>
+      <c r="D60" s="16">
+        <v>4</v>
+      </c>
+      <c r="E60" s="16">
         <v>8</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>6</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="16">
         <v>6</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="17">
-        <v>1</v>
-      </c>
-      <c r="D61" s="17">
-        <v>2</v>
-      </c>
-      <c r="E61" s="17">
+      <c r="C61" s="16">
+        <v>1</v>
+      </c>
+      <c r="D61" s="16">
+        <v>2</v>
+      </c>
+      <c r="E61" s="16">
         <v>12</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>7</v>
       </c>
-      <c r="G61" s="17">
-        <v>3</v>
-      </c>
-      <c r="H61" s="10">
+      <c r="G61" s="16">
+        <v>3</v>
+      </c>
+      <c r="H61" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="17">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17">
-        <v>5</v>
-      </c>
-      <c r="E62" s="17">
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16">
+        <v>5</v>
+      </c>
+      <c r="E62" s="16">
         <v>10</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>7</v>
       </c>
-      <c r="G62" s="17">
-        <v>2</v>
-      </c>
-      <c r="H62" s="10">
+      <c r="G62" s="16">
+        <v>2</v>
+      </c>
+      <c r="H62" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="17">
-        <v>2</v>
-      </c>
-      <c r="D63" s="17">
-        <v>5</v>
-      </c>
-      <c r="E63" s="17">
+      <c r="C63" s="16">
+        <v>2</v>
+      </c>
+      <c r="D63" s="16">
+        <v>5</v>
+      </c>
+      <c r="E63" s="16">
         <v>10</v>
       </c>
-      <c r="F63" s="17">
-        <v>5</v>
-      </c>
-      <c r="G63" s="17">
-        <v>3</v>
-      </c>
-      <c r="H63" s="10">
+      <c r="F63" s="16">
+        <v>5</v>
+      </c>
+      <c r="G63" s="16">
+        <v>3</v>
+      </c>
+      <c r="H63" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>8</v>
       </c>
-      <c r="D64" s="17">
-        <v>2</v>
-      </c>
-      <c r="E64" s="17">
-        <v>5</v>
-      </c>
-      <c r="F64" s="17">
-        <v>1</v>
-      </c>
-      <c r="G64" s="17">
+      <c r="D64" s="16">
+        <v>2</v>
+      </c>
+      <c r="E64" s="16">
+        <v>5</v>
+      </c>
+      <c r="F64" s="16">
+        <v>1</v>
+      </c>
+      <c r="G64" s="16">
         <v>9</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>19</v>
       </c>
-      <c r="D65" s="17">
-        <v>3</v>
-      </c>
-      <c r="E65" s="17">
-        <v>3</v>
-      </c>
-      <c r="F65" s="17">
-        <v>0</v>
-      </c>
-      <c r="G65" s="17">
-        <v>0</v>
-      </c>
-      <c r="H65" s="10">
+      <c r="D65" s="16">
+        <v>3</v>
+      </c>
+      <c r="E65" s="16">
+        <v>3</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0</v>
+      </c>
+      <c r="G65" s="16">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="17">
-        <v>2</v>
-      </c>
-      <c r="D66" s="17">
-        <v>4</v>
-      </c>
-      <c r="E66" s="17">
-        <v>4</v>
-      </c>
-      <c r="F66" s="17">
+      <c r="C66" s="16">
+        <v>2</v>
+      </c>
+      <c r="D66" s="16">
+        <v>4</v>
+      </c>
+      <c r="E66" s="16">
+        <v>4</v>
+      </c>
+      <c r="F66" s="16">
         <v>13</v>
       </c>
-      <c r="G66" s="17">
-        <v>2</v>
-      </c>
-      <c r="H66" s="10">
+      <c r="G66" s="16">
+        <v>2</v>
+      </c>
+      <c r="H66" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="17">
-        <v>0</v>
-      </c>
-      <c r="D67" s="17">
-        <v>2</v>
-      </c>
-      <c r="E67" s="17">
-        <v>2</v>
-      </c>
-      <c r="F67" s="17">
+      <c r="C67" s="16">
+        <v>0</v>
+      </c>
+      <c r="D67" s="16">
+        <v>2</v>
+      </c>
+      <c r="E67" s="16">
+        <v>2</v>
+      </c>
+      <c r="F67" s="16">
         <v>11</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>10</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="17">
-        <v>1</v>
-      </c>
-      <c r="D68" s="17">
-        <v>2</v>
-      </c>
-      <c r="E68" s="17">
+      <c r="C68" s="16">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16">
+        <v>2</v>
+      </c>
+      <c r="E68" s="16">
         <v>6</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <v>13</v>
       </c>
-      <c r="G68" s="17">
-        <v>3</v>
-      </c>
-      <c r="H68" s="10">
+      <c r="G68" s="16">
+        <v>3</v>
+      </c>
+      <c r="H68" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>10</v>
       </c>
-      <c r="D69" s="17">
-        <v>3</v>
-      </c>
-      <c r="E69" s="17">
+      <c r="D69" s="16">
+        <v>3</v>
+      </c>
+      <c r="E69" s="16">
         <v>8</v>
       </c>
-      <c r="F69" s="17">
-        <v>3</v>
-      </c>
-      <c r="G69" s="17">
-        <v>1</v>
-      </c>
-      <c r="H69" s="10">
+      <c r="F69" s="16">
+        <v>3</v>
+      </c>
+      <c r="G69" s="16">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="14" t="s">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H70" s="10"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="17">
-        <v>0</v>
-      </c>
-      <c r="D71" s="17">
-        <v>1</v>
-      </c>
-      <c r="E71" s="17">
-        <v>4</v>
-      </c>
-      <c r="F71" s="17">
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1</v>
+      </c>
+      <c r="E71" s="16">
+        <v>4</v>
+      </c>
+      <c r="F71" s="16">
         <v>8</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>12</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <f>SUM(C71:G71)</f>
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="17">
-        <v>0</v>
-      </c>
-      <c r="D72" s="17">
-        <v>3</v>
-      </c>
-      <c r="E72" s="17">
-        <v>3</v>
-      </c>
-      <c r="F72" s="17">
+      <c r="C72" s="16">
+        <v>0</v>
+      </c>
+      <c r="D72" s="16">
+        <v>3</v>
+      </c>
+      <c r="E72" s="16">
+        <v>3</v>
+      </c>
+      <c r="F72" s="16">
         <v>11</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="16">
         <v>8</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <f t="shared" ref="H72:H75" si="4">SUM(C72:G72)</f>
         <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="17">
-        <v>0</v>
-      </c>
-      <c r="D73" s="17">
-        <v>0</v>
-      </c>
-      <c r="E73" s="17">
-        <v>1</v>
-      </c>
-      <c r="F73" s="17">
+      <c r="C73" s="16">
+        <v>0</v>
+      </c>
+      <c r="D73" s="16">
+        <v>0</v>
+      </c>
+      <c r="E73" s="16">
+        <v>1</v>
+      </c>
+      <c r="F73" s="16">
         <v>12</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="16">
         <v>12</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="17">
-        <v>2</v>
-      </c>
-      <c r="D74" s="17">
+      <c r="C74" s="16">
+        <v>2</v>
+      </c>
+      <c r="D74" s="16">
         <v>6</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="16">
         <v>6</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="16">
         <v>6</v>
       </c>
-      <c r="G74" s="17">
-        <v>5</v>
-      </c>
-      <c r="H74" s="10">
+      <c r="G74" s="16">
+        <v>5</v>
+      </c>
+      <c r="H74" s="9">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="17">
-        <v>0</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="17">
-        <v>1</v>
-      </c>
-      <c r="F75" s="17">
-        <v>2</v>
-      </c>
-      <c r="G75" s="17">
+      <c r="C75" s="16">
+        <v>0</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0</v>
+      </c>
+      <c r="E75" s="16">
+        <v>1</v>
+      </c>
+      <c r="F75" s="16">
+        <v>2</v>
+      </c>
+      <c r="G75" s="16">
         <v>22</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="6"/>
+      <c r="B76" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <f>SUM(C55:C75)</f>
         <v>98</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <f t="shared" ref="D76:G76" si="5">SUM(D55:D75)</f>
         <v>58</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="9">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <f>SUM(C76:G76)</f>
         <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="13" t="s">
+      <c r="B79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="16" t="s">
+      <c r="F79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="17">
-        <v>3</v>
-      </c>
-      <c r="D80" s="17">
-        <v>0</v>
-      </c>
-      <c r="E80" s="17">
-        <v>2</v>
-      </c>
-      <c r="F80" s="17">
+      <c r="C80" s="16">
+        <v>3</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0</v>
+      </c>
+      <c r="E80" s="16">
+        <v>2</v>
+      </c>
+      <c r="F80" s="16">
         <v>11</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="16">
         <v>9</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <f>SUM(C80:G80)</f>
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="17">
-        <v>2</v>
-      </c>
-      <c r="D81" s="17">
-        <v>3</v>
-      </c>
-      <c r="E81" s="17">
-        <v>1</v>
-      </c>
-      <c r="F81" s="17">
+      <c r="C81" s="16">
+        <v>2</v>
+      </c>
+      <c r="D81" s="16">
+        <v>3</v>
+      </c>
+      <c r="E81" s="16">
+        <v>1</v>
+      </c>
+      <c r="F81" s="16">
         <v>6</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="16">
         <v>13</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <f t="shared" ref="H81:H94" si="6">SUM(C81:G81)</f>
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="16">
         <v>13</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="16">
         <v>8</v>
       </c>
-      <c r="E82" s="17">
-        <v>1</v>
-      </c>
-      <c r="F82" s="17">
-        <v>3</v>
-      </c>
-      <c r="G82" s="17">
-        <v>0</v>
-      </c>
-      <c r="H82" s="10">
+      <c r="E82" s="16">
+        <v>1</v>
+      </c>
+      <c r="F82" s="16">
+        <v>3</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="16">
         <v>11</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D83" s="16">
         <v>10</v>
       </c>
-      <c r="E83" s="17">
-        <v>2</v>
-      </c>
-      <c r="F83" s="17">
-        <v>2</v>
-      </c>
-      <c r="G83" s="17">
-        <v>0</v>
-      </c>
-      <c r="H83" s="10">
+      <c r="E83" s="16">
+        <v>2</v>
+      </c>
+      <c r="F83" s="16">
+        <v>2</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="16">
         <v>15</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="16">
         <v>7</v>
       </c>
-      <c r="E84" s="17">
-        <v>1</v>
-      </c>
-      <c r="F84" s="17">
-        <v>2</v>
-      </c>
-      <c r="G84" s="17">
-        <v>0</v>
-      </c>
-      <c r="H84" s="10">
+      <c r="E84" s="16">
+        <v>1</v>
+      </c>
+      <c r="F84" s="16">
+        <v>2</v>
+      </c>
+      <c r="G84" s="16">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="17">
-        <v>1</v>
-      </c>
-      <c r="D85" s="17">
-        <v>4</v>
-      </c>
-      <c r="E85" s="17">
+      <c r="C85" s="16">
+        <v>1</v>
+      </c>
+      <c r="D85" s="16">
+        <v>4</v>
+      </c>
+      <c r="E85" s="16">
         <v>7</v>
       </c>
-      <c r="F85" s="17">
-        <v>5</v>
-      </c>
-      <c r="G85" s="17">
+      <c r="F85" s="16">
+        <v>5</v>
+      </c>
+      <c r="G85" s="16">
         <v>8</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="17">
-        <v>2</v>
-      </c>
-      <c r="D86" s="17">
-        <v>2</v>
-      </c>
-      <c r="E86" s="17">
+      <c r="C86" s="16">
+        <v>2</v>
+      </c>
+      <c r="D86" s="16">
+        <v>2</v>
+      </c>
+      <c r="E86" s="16">
         <v>7</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <v>8</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="16">
         <v>6</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="17">
-        <v>0</v>
-      </c>
-      <c r="D87" s="17">
+      <c r="C87" s="16">
+        <v>0</v>
+      </c>
+      <c r="D87" s="16">
         <v>6</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="16">
         <v>10</v>
       </c>
-      <c r="F87" s="17">
-        <v>5</v>
-      </c>
-      <c r="G87" s="17">
-        <v>4</v>
-      </c>
-      <c r="H87" s="10">
+      <c r="F87" s="16">
+        <v>5</v>
+      </c>
+      <c r="G87" s="16">
+        <v>4</v>
+      </c>
+      <c r="H87" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="17">
-        <v>1</v>
-      </c>
-      <c r="D88" s="17">
-        <v>3</v>
-      </c>
-      <c r="E88" s="17">
+      <c r="C88" s="16">
+        <v>1</v>
+      </c>
+      <c r="D88" s="16">
+        <v>3</v>
+      </c>
+      <c r="E88" s="16">
         <v>9</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="16">
         <v>8</v>
       </c>
-      <c r="G88" s="17">
-        <v>4</v>
-      </c>
-      <c r="H88" s="10">
+      <c r="G88" s="16">
+        <v>4</v>
+      </c>
+      <c r="H88" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="17">
-        <v>5</v>
-      </c>
-      <c r="D89" s="17">
-        <v>5</v>
-      </c>
-      <c r="E89" s="17">
-        <v>1</v>
-      </c>
-      <c r="F89" s="17">
+      <c r="C89" s="16">
+        <v>5</v>
+      </c>
+      <c r="D89" s="16">
+        <v>5</v>
+      </c>
+      <c r="E89" s="16">
+        <v>1</v>
+      </c>
+      <c r="F89" s="16">
         <v>6</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="16">
         <v>8</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <v>15</v>
       </c>
-      <c r="D90" s="17">
-        <v>4</v>
-      </c>
-      <c r="E90" s="17">
-        <v>2</v>
-      </c>
-      <c r="F90" s="17">
-        <v>3</v>
-      </c>
-      <c r="G90" s="17">
-        <v>1</v>
-      </c>
-      <c r="H90" s="10">
+      <c r="D90" s="16">
+        <v>4</v>
+      </c>
+      <c r="E90" s="16">
+        <v>2</v>
+      </c>
+      <c r="F90" s="16">
+        <v>3</v>
+      </c>
+      <c r="G90" s="16">
+        <v>1</v>
+      </c>
+      <c r="H90" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>7</v>
       </c>
-      <c r="D91" s="17">
-        <v>2</v>
-      </c>
-      <c r="E91" s="17">
+      <c r="D91" s="16">
+        <v>2</v>
+      </c>
+      <c r="E91" s="16">
         <v>12</v>
       </c>
-      <c r="F91" s="17">
-        <v>1</v>
-      </c>
-      <c r="G91" s="17">
-        <v>3</v>
-      </c>
-      <c r="H91" s="10">
+      <c r="F91" s="16">
+        <v>1</v>
+      </c>
+      <c r="G91" s="16">
+        <v>3</v>
+      </c>
+      <c r="H91" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="17">
-        <v>0</v>
-      </c>
-      <c r="D92" s="17">
-        <v>5</v>
-      </c>
-      <c r="E92" s="17">
-        <v>3</v>
-      </c>
-      <c r="F92" s="17">
-        <v>5</v>
-      </c>
-      <c r="G92" s="17">
+      <c r="C92" s="16">
+        <v>0</v>
+      </c>
+      <c r="D92" s="16">
+        <v>5</v>
+      </c>
+      <c r="E92" s="16">
+        <v>3</v>
+      </c>
+      <c r="F92" s="16">
+        <v>5</v>
+      </c>
+      <c r="G92" s="16">
         <v>12</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="17">
-        <v>2</v>
-      </c>
-      <c r="D93" s="17">
-        <v>3</v>
-      </c>
-      <c r="E93" s="17">
-        <v>4</v>
-      </c>
-      <c r="F93" s="17">
+      <c r="C93" s="16">
+        <v>2</v>
+      </c>
+      <c r="D93" s="16">
+        <v>3</v>
+      </c>
+      <c r="E93" s="16">
+        <v>4</v>
+      </c>
+      <c r="F93" s="16">
         <v>10</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>6</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="17">
-        <v>5</v>
-      </c>
-      <c r="D94" s="17">
+      <c r="C94" s="16">
+        <v>5</v>
+      </c>
+      <c r="D94" s="16">
         <v>12</v>
       </c>
-      <c r="E94" s="17">
-        <v>3</v>
-      </c>
-      <c r="F94" s="17">
-        <v>2</v>
-      </c>
-      <c r="G94" s="17">
-        <v>3</v>
-      </c>
-      <c r="H94" s="10">
+      <c r="E94" s="16">
+        <v>3</v>
+      </c>
+      <c r="F94" s="16">
+        <v>2</v>
+      </c>
+      <c r="G94" s="16">
+        <v>3</v>
+      </c>
+      <c r="H94" s="9">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="14" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="17">
-        <v>2</v>
-      </c>
-      <c r="D96" s="17">
-        <v>0</v>
-      </c>
-      <c r="E96" s="17">
+      <c r="C96" s="16">
+        <v>2</v>
+      </c>
+      <c r="D96" s="16">
+        <v>0</v>
+      </c>
+      <c r="E96" s="16">
         <v>13</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <v>6</v>
       </c>
-      <c r="G96" s="17">
-        <v>4</v>
-      </c>
-      <c r="H96" s="10">
+      <c r="G96" s="16">
+        <v>4</v>
+      </c>
+      <c r="H96" s="9">
         <f>SUM(C96:G96)</f>
         <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="17">
-        <v>0</v>
-      </c>
-      <c r="D97" s="17">
-        <v>5</v>
-      </c>
-      <c r="E97" s="17">
-        <v>1</v>
-      </c>
-      <c r="F97" s="17">
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="16">
+        <v>5</v>
+      </c>
+      <c r="E97" s="16">
+        <v>1</v>
+      </c>
+      <c r="F97" s="16">
         <v>10</v>
       </c>
-      <c r="G97" s="17">
+      <c r="G97" s="16">
         <v>9</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="9">
         <f t="shared" ref="H97:H100" si="7">SUM(C97:G97)</f>
         <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="17">
-        <v>1</v>
-      </c>
-      <c r="D98" s="17">
-        <v>0</v>
-      </c>
-      <c r="E98" s="17">
-        <v>4</v>
-      </c>
-      <c r="F98" s="17">
+      <c r="C98" s="16">
+        <v>1</v>
+      </c>
+      <c r="D98" s="16">
+        <v>0</v>
+      </c>
+      <c r="E98" s="16">
+        <v>4</v>
+      </c>
+      <c r="F98" s="16">
         <v>11</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="16">
         <v>9</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="9">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="16">
         <v>6</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D99" s="16">
         <v>6</v>
       </c>
-      <c r="E99" s="17">
-        <v>5</v>
-      </c>
-      <c r="F99" s="17">
+      <c r="E99" s="16">
+        <v>5</v>
+      </c>
+      <c r="F99" s="16">
         <v>7</v>
       </c>
-      <c r="G99" s="17">
-        <v>1</v>
-      </c>
-      <c r="H99" s="10">
+      <c r="G99" s="16">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="17">
-        <v>0</v>
-      </c>
-      <c r="D100" s="17">
-        <v>2</v>
-      </c>
-      <c r="E100" s="17">
-        <v>4</v>
-      </c>
-      <c r="F100" s="17">
-        <v>5</v>
-      </c>
-      <c r="G100" s="17">
+      <c r="C100" s="16">
+        <v>0</v>
+      </c>
+      <c r="D100" s="16">
+        <v>2</v>
+      </c>
+      <c r="E100" s="16">
+        <v>4</v>
+      </c>
+      <c r="F100" s="16">
+        <v>5</v>
+      </c>
+      <c r="G100" s="16">
         <v>14</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="9">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <f>SUM(C80:C100)</f>
         <v>91</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <f t="shared" ref="D101:G101" si="8">SUM(D80:D100)</f>
         <v>87</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="9">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="9">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="9">
         <f>SUM(C101:G101)</f>
         <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="9">
+        <f>SUM(C101,C76,C51,C26)</f>
+        <v>365</v>
+      </c>
+      <c r="D103" s="9">
+        <f t="shared" ref="D103:G103" si="9">SUM(D101,D76,D51,D26)</f>
+        <v>332</v>
+      </c>
+      <c r="E103" s="9">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="F103" s="9">
+        <f t="shared" si="9"/>
+        <v>408</v>
+      </c>
+      <c r="G103" s="9">
+        <f t="shared" si="9"/>
+        <v>517</v>
+      </c>
+      <c r="H103" s="9">
+        <f>SUM(C103:G103)</f>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
